--- a/trunk/ANEXOS/Casos_de_Uso_v.0.1(1).xlsx
+++ b/trunk/ANEXOS/Casos_de_Uso_v.0.1(1).xlsx
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
